--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-418004.4647178637</v>
+        <v>-380429.3175617509</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17367124.05617157</v>
+        <v>16765245.16155729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248444</v>
+        <v>492028.934248445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9135756.953901069</v>
+        <v>9151841.652385144</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,16 +668,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>224.910662630372</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>186.3699546336122</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>18.28928691739486</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,13 +874,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>112.8257338852141</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>355.6611154650816</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>334.7850776714731</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>5.564299966131935</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>81.49380289235384</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>343.3391654553388</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>74.17739491239254</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1291,22 +1291,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5220400373067</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>123.2901323038662</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1379,7 +1379,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1421,16 +1421,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0.3224654726309107</v>
       </c>
       <c r="U11" t="n">
-        <v>131.1125050271537</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1537,7 +1537,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>31.24391673888106</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>84.01976803536644</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>2.482622962344806</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561535</v>
+        <v>256.6300796561517</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800569</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>351.2179548616439</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2008,16 +2008,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117759</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>103.3456594571896</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>2.482622962344522</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225707</v>
+        <v>31.24391673888111</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>234.6314620976453</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924855</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225763</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>405.8008644413114</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>417.5253377496637</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>415.3149766385527</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545405</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561371</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242215</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>270.0031426724686</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925456</v>
+        <v>66.57964473925409</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169445</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>240.394369317406</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267645</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>384.5711897043298</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>398.7153284477351</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245958</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.66472219305</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628601</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317453</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730229</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591141</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856834</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277792</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432299</v>
+        <v>71.53763939432415</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934572</v>
       </c>
       <c r="S40" t="n">
         <v>141.413244676236</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>227.184941618582</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>259.4129604006785</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095266</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>253.0704300308241</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811744</v>
       </c>
       <c r="Y40" t="n">
         <v>208.9097636402855</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432407</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724676</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
@@ -4144,16 +4144,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.96793274293448</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6066390714051</v>
+        <v>980.435353327166</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5045702952325</v>
+        <v>542.2928805105893</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6351895100811</v>
+        <v>510.4234997254378</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>480.689158924137</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>52.82172933334478</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>52.82172933334478</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.82172933334478</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048478</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1136.170759424402</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301588</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301588</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301588</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.083015301588</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312587</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271182</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2536.595124208076</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2316.527897081115</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2057.305594398132</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>2057.305594398132</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>1830.123106892705</v>
       </c>
       <c r="X2" t="n">
-        <v>653.1182849437999</v>
+        <v>1410.980643472016</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8658055159088</v>
+        <v>1002.69451977167</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>558.5766849517776</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>452.1202237884199</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>357.0299349349731</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>262.9095202619268</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>179.5256818780884</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>94.14059214427232</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048478</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>78.46861312094238</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.538070098154</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1598.471923344954</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1715.644701439294</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1652.189263887677</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.010620218278</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1345.674073218247</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1146.556555280246</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>961.2338010134399</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>806.36636525232</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>679.8805860315407</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.0776450162207</v>
+        <v>1131.463100572366</v>
       </c>
       <c r="C4" t="n">
-        <v>141.0776450162207</v>
+        <v>958.901389055591</v>
       </c>
       <c r="D4" t="n">
-        <v>141.0776450162207</v>
+        <v>793.0233962571137</v>
       </c>
       <c r="E4" t="n">
-        <v>141.0776450162207</v>
+        <v>623.2653925078511</v>
       </c>
       <c r="F4" t="n">
-        <v>141.0776450162207</v>
+        <v>446.5583384696072</v>
       </c>
       <c r="G4" t="n">
-        <v>141.0776450162207</v>
+        <v>280.9670634954349</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>141.0648891858094</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048478</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>138.9846251251746</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>364.9255278572647</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>783.1354096252257</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1242.619276806139</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1684.878079963783</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2104.547329189565</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2452.054223159907</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2461.005629322236</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2215.126182900691</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1936.693182153796</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1822.727794390953</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>1550.701389977245</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>1550.701389977245</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>1323.281719291353</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.044874488545</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.942805712373</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.073424927221</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.33908412592</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>1831.517644636552</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>1830.70259408799</v>
       </c>
       <c r="X5" t="n">
-        <v>1274.549760592992</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y5" t="n">
-        <v>1270.304040933049</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>433.7175721270257</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>433.7175721270257</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7175721270257</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>433.7175721270257</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U7" t="n">
-        <v>1238.091239336891</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V7" t="n">
-        <v>951.1357312073217</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W7" t="n">
-        <v>679.1093267936133</v>
+        <v>1651.986723144624</v>
       </c>
       <c r="X7" t="n">
-        <v>433.7175721270257</v>
+        <v>1406.594968478036</v>
       </c>
       <c r="Y7" t="n">
-        <v>433.7175721270257</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1688.317957037631</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>1654.215888261459</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>1307.408650427783</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>873.6339055860783</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>445.766475995286</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>44.36864461854985</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>44.36864461854985</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>44.36864461854985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>479.6233320714677</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1028.685309226022</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1028.685309226022</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1028.685309226022</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1028.685309226022</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1028.685309226022</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1502.779380215841</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2049.278166174436</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2218.432230927493</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2134.78035711133</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2134.78035711133</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2134.78035711133</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.78035711133</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>2133.965306562767</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X8" t="n">
-        <v>2118.863247182482</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y8" t="n">
-        <v>2114.617527522539</v>
+        <v>2213.169435797357</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.5403896098427</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>444.0839284464849</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.9936395930382</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.8732249199919</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>171.4893865361535</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>86.10429680233739</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>44.36864461854985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>70.43231777900745</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.9906427452198</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>944.0526198997741</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1590.435628003019</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1707.608406097359</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1644.152968545742</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.974324876343</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1337.637777876312</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1138.520259938311</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>953.197505671505</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>798.3300699103851</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.8442906896058</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>289.8486371476771</v>
+        <v>1028.432740781182</v>
       </c>
       <c r="C10" t="n">
-        <v>184.2708189281753</v>
+        <v>855.8710292644072</v>
       </c>
       <c r="D10" t="n">
-        <v>184.2708189281753</v>
+        <v>689.9930364659299</v>
       </c>
       <c r="E10" t="n">
-        <v>184.2708189281753</v>
+        <v>520.2350327166671</v>
       </c>
       <c r="F10" t="n">
-        <v>184.2708189281753</v>
+        <v>343.5279786784233</v>
       </c>
       <c r="G10" t="n">
-        <v>184.2708189281753</v>
+        <v>177.936703704251</v>
       </c>
       <c r="H10" t="n">
-        <v>44.36864461854985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>44.36864461854985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>44.36864461854985</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>131.3035356248508</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>549.5134173928119</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1008.997284573725</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.256087731369</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1870.925336957151</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2218.432230927493</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2218.432230927493</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2197.014409632864</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2037.773040930861</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1791.893594509316</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.460593762421</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1226.505085632852</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W10" t="n">
-        <v>954.4786812191435</v>
+        <v>1693.062784852649</v>
       </c>
       <c r="X10" t="n">
-        <v>709.086926552556</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y10" t="n">
-        <v>481.6672558666642</v>
+        <v>1220.251359500169</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2518.050233702663</v>
+        <v>2071.71577204938</v>
       </c>
       <c r="C11" t="n">
-        <v>2079.907760886086</v>
+        <v>1633.573299232803</v>
       </c>
       <c r="D11" t="n">
-        <v>1643.997976060531</v>
+        <v>1197.663514407248</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.223231218826</v>
+        <v>763.888769565543</v>
       </c>
       <c r="F11" t="n">
-        <v>782.3558016280335</v>
+        <v>763.888769565543</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9579702512974</v>
+        <v>362.4909381888069</v>
       </c>
       <c r="H11" t="n">
-        <v>91.8278156945139</v>
+        <v>73.36078363202313</v>
       </c>
       <c r="I11" t="n">
-        <v>91.41102632165415</v>
+        <v>72.94399425916313</v>
       </c>
       <c r="J11" t="n">
-        <v>526.6657137745721</v>
+        <v>72.94399425916313</v>
       </c>
       <c r="K11" t="n">
-        <v>769.6461563707436</v>
+        <v>907.2942862173411</v>
       </c>
       <c r="L11" t="n">
-        <v>769.6461563707436</v>
+        <v>907.2942862173411</v>
       </c>
       <c r="M11" t="n">
-        <v>1900.857607101214</v>
+        <v>907.2942862173411</v>
       </c>
       <c r="N11" t="n">
-        <v>3026.588590537661</v>
+        <v>1809.976215174485</v>
       </c>
       <c r="O11" t="n">
-        <v>3026.588590537661</v>
+        <v>2272.391052166166</v>
       </c>
       <c r="P11" t="n">
-        <v>3854.898465371057</v>
+        <v>3100.700926999562</v>
       </c>
       <c r="Q11" t="n">
-        <v>4401.397251329651</v>
+        <v>3647.199712958157</v>
       </c>
       <c r="R11" t="n">
-        <v>4570.551316082708</v>
+        <v>3647.199712958157</v>
       </c>
       <c r="S11" t="n">
-        <v>4486.899442266545</v>
+        <v>3563.547839141994</v>
       </c>
       <c r="T11" t="n">
-        <v>4266.832215139583</v>
+        <v>3563.222116442367</v>
       </c>
       <c r="U11" t="n">
-        <v>4134.39534137478</v>
+        <v>3303.999813759384</v>
       </c>
       <c r="V11" t="n">
-        <v>3771.778391308607</v>
+        <v>3303.999813759384</v>
       </c>
       <c r="W11" t="n">
-        <v>3771.778391308607</v>
+        <v>2899.144359170417</v>
       </c>
       <c r="X11" t="n">
-        <v>3352.635927887918</v>
+        <v>2480.001895749728</v>
       </c>
       <c r="Y11" t="n">
-        <v>2944.349804187571</v>
+        <v>2071.71577204938</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>597.582771312947</v>
+        <v>579.1157392504559</v>
       </c>
       <c r="C12" t="n">
-        <v>491.1263101495892</v>
+        <v>472.6592780870982</v>
       </c>
       <c r="D12" t="n">
-        <v>396.0360212961425</v>
+        <v>377.5689892336515</v>
       </c>
       <c r="E12" t="n">
-        <v>301.9156066230962</v>
+        <v>283.4485745606052</v>
       </c>
       <c r="F12" t="n">
-        <v>218.5317682392578</v>
+        <v>200.0647361767668</v>
       </c>
       <c r="G12" t="n">
-        <v>133.1466785054417</v>
+        <v>114.6796464429507</v>
       </c>
       <c r="H12" t="n">
-        <v>91.41102632165415</v>
+        <v>72.94399425916313</v>
       </c>
       <c r="I12" t="n">
-        <v>117.4746994821117</v>
+        <v>99.00766741962073</v>
       </c>
       <c r="J12" t="n">
-        <v>442.0330244483241</v>
+        <v>423.5659923858331</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.739071074048</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.739071074048</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.739071074048</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.739071074048</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.739071074048</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.739071074048</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="Q12" t="n">
-        <v>1637.478009706123</v>
+        <v>1619.010977643632</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.650787800463</v>
+        <v>1736.183755737972</v>
       </c>
       <c r="S12" t="n">
-        <v>1691.195350248846</v>
+        <v>1672.728318186355</v>
       </c>
       <c r="T12" t="n">
-        <v>1561.016706579448</v>
+        <v>1542.549674516957</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.680159579416</v>
+        <v>1366.213127516925</v>
       </c>
       <c r="V12" t="n">
-        <v>1185.562641641415</v>
+        <v>1167.095609578924</v>
       </c>
       <c r="W12" t="n">
-        <v>1000.239887374609</v>
+        <v>981.7728553121183</v>
       </c>
       <c r="X12" t="n">
-        <v>845.3724516134894</v>
+        <v>826.9054195509983</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.8866723927101</v>
+        <v>700.4196403302191</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>853.8599585856662</v>
+        <v>782.4378316767751</v>
       </c>
       <c r="C13" t="n">
-        <v>681.2982470688911</v>
+        <v>782.4378316767751</v>
       </c>
       <c r="D13" t="n">
-        <v>515.4202542704138</v>
+        <v>616.5598388782978</v>
       </c>
       <c r="E13" t="n">
-        <v>345.6622505211511</v>
+        <v>446.801835129035</v>
       </c>
       <c r="F13" t="n">
-        <v>345.6622505211511</v>
+        <v>270.0947810907912</v>
       </c>
       <c r="G13" t="n">
-        <v>180.0709755469788</v>
+        <v>104.5035061166188</v>
       </c>
       <c r="H13" t="n">
-        <v>180.0709755469788</v>
+        <v>104.5035061166188</v>
       </c>
       <c r="I13" t="n">
-        <v>91.41102632165415</v>
+        <v>72.94399425916313</v>
       </c>
       <c r="J13" t="n">
-        <v>177.990711486344</v>
+        <v>159.523679423853</v>
       </c>
       <c r="K13" t="n">
-        <v>452.7491660574796</v>
+        <v>434.2821339949886</v>
       </c>
       <c r="L13" t="n">
-        <v>870.9590478254407</v>
+        <v>852.4920157629497</v>
       </c>
       <c r="M13" t="n">
-        <v>1330.442915006354</v>
+        <v>1311.975882943863</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.701718163998</v>
+        <v>1754.234686101507</v>
       </c>
       <c r="O13" t="n">
-        <v>2192.37096738978</v>
+        <v>2173.903935327289</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.877861360122</v>
+        <v>2521.410829297631</v>
       </c>
       <c r="Q13" t="n">
-        <v>2708.070636224454</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2686.652814929826</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="S13" t="n">
-        <v>2601.78436236885</v>
+        <v>2530.362235459959</v>
       </c>
       <c r="T13" t="n">
-        <v>2355.904915947305</v>
+        <v>2284.482789038414</v>
       </c>
       <c r="U13" t="n">
-        <v>2077.47191520041</v>
+        <v>2006.049788291519</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.516407070841</v>
+        <v>1719.09428016195</v>
       </c>
       <c r="W13" t="n">
-        <v>1518.490002657133</v>
+        <v>1447.067875748241</v>
       </c>
       <c r="X13" t="n">
-        <v>1273.098247990545</v>
+        <v>1201.676121081654</v>
       </c>
       <c r="Y13" t="n">
-        <v>1045.678577304653</v>
+        <v>974.2564503957622</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.327580924765</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.185108108188</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.275323282633</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.500578440928</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>786.6331488501357</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G14" t="n">
-        <v>385.2353174733997</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>96.10516291661594</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.10516291661594</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>371.7054955044052</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1206.055787462583</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2281.115753715443</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2281.115753715443</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2281.115753715443</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O14" t="n">
-        <v>3261.295420285749</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P14" t="n">
-        <v>4089.605295119145</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q14" t="n">
-        <v>4636.10408107774</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R14" t="n">
-        <v>4805.258145830797</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S14" t="n">
-        <v>4805.258145830797</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
-        <v>4802.750445868833</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U14" t="n">
-        <v>4543.528143185848</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4180.911193119675</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.055738530708</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3356.913275110019</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2948.627151409672</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.2769079079087</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>495.820446744551</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>400.7301578911043</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>306.609743218058</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>223.2259048342196</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
-        <v>137.8408151004035</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.10516291661594</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.1688360770735</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>446.7271610432859</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.172146301085</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.344924395425</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.889486843808</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.71084317441</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.374296174378</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.256778236377</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.934023969571</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.0665882084511</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.5808089876718</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>946.6011999935472</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C16" t="n">
-        <v>774.0394884767721</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D16" t="n">
-        <v>608.1614956782948</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E16" t="n">
-        <v>438.403491929032</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>261.6964378907883</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G16" t="n">
-        <v>96.10516291661594</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>96.10516291661594</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.10516291661594</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>182.6848480813058</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K16" t="n">
-        <v>457.4433026524414</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>875.6531844204025</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.137051601316</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.39585475896</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.065103984742</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.571997955084</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.764772819416</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.764772819416</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2694.525603776732</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2448.646157355187</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.213156608292</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.257648478723</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.231244065014</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1365.839489398427</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.419818712534</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2441.183407070567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2003.04093425399</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.275323282633</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1214.500578440928</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>786.6331488501357</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
-        <v>385.2353174733997</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>96.10516291661594</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>96.10516291661594</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>531.3598503695339</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1365.710142327712</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2281.115753715443</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2281.115753715443</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="N17" t="n">
-        <v>2281.115753715443</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O17" t="n">
-        <v>3261.295420285749</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P17" t="n">
-        <v>4089.605295119145</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q17" t="n">
-        <v>4636.10408107774</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R17" t="n">
-        <v>4805.258145830797</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S17" t="n">
-        <v>4721.606272014634</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4721.606272014634</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U17" t="n">
-        <v>4462.38396933165</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V17" t="n">
-        <v>4099.767019265477</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W17" t="n">
-        <v>3694.91156467651</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X17" t="n">
-        <v>3275.769101255821</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2867.482977555474</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.2769079079087</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>495.820446744551</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>400.7301578911043</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>306.609743218058</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>223.2259048342196</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
-        <v>137.8408151004035</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>96.10516291661594</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>122.1688360770735</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>446.7271610432859</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K18" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.172146301085</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.344924395425</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.889486843808</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.71084317441</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.374296174378</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.256778236377</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.934023969571</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>850.0665882084511</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>723.5808089876718</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>805.5990003342281</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C19" t="n">
-        <v>633.037288817453</v>
+        <v>884.5847208382039</v>
       </c>
       <c r="D19" t="n">
-        <v>467.1592960189758</v>
+        <v>718.7067280397266</v>
       </c>
       <c r="E19" t="n">
-        <v>297.4012922697131</v>
+        <v>548.9487242904579</v>
       </c>
       <c r="F19" t="n">
-        <v>120.6942382314692</v>
+        <v>372.2416702522141</v>
       </c>
       <c r="G19" t="n">
-        <v>96.10516291661594</v>
+        <v>206.6503952780417</v>
       </c>
       <c r="H19" t="n">
-        <v>96.10516291661594</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>96.10516291661594</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>182.6848480813058</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K19" t="n">
-        <v>457.4433026524414</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>875.6531844204025</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.137051601316</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1777.39585475896</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.065103984742</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2544.571997955084</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.764772819416</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.764772819415</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2553.523404117412</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2307.643957695867</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.210956948973</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.255448819403</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.229044405695</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1224.837289739107</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y19" t="n">
-        <v>997.4176190532153</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.327580924765</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.185108108189</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.275323282633</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1214.500578440928</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>786.6331488501357</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>385.2353174733997</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>96.10516291661594</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
-        <v>96.10516291661594</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>531.3598503695339</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1365.710142327712</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2281.115753715443</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2281.115753715443</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2281.115753715443</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3261.295420285749</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4089.605295119145</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4636.10408107774</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>4805.258145830797</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>4805.258145830797</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4802.750445868833</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4543.528143185849</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4180.911193119676</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.055738530709</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3356.91327511002</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2948.627151409673</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.2769079079087</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>495.820446744551</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>400.7301578911043</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>306.609743218058</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>223.2259048342196</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>137.8408151004035</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>96.10516291661594</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>122.1688360770735</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>446.7271610432859</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1101.43320766901</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.172146301085</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.344924395425</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.889486843808</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.71084317441</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.374296174378</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.256778236377</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.934023969571</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>850.0665882084511</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.5808089876718</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.8403690362311</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C22" t="n">
-        <v>792.278657519456</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="D22" t="n">
-        <v>626.4006647209787</v>
+        <v>645.8766848899143</v>
       </c>
       <c r="E22" t="n">
-        <v>456.642660971716</v>
+        <v>476.1186811406515</v>
       </c>
       <c r="F22" t="n">
-        <v>279.9356069334722</v>
+        <v>299.4116271024076</v>
       </c>
       <c r="G22" t="n">
-        <v>114.3443319592998</v>
+        <v>133.8203521282353</v>
       </c>
       <c r="H22" t="n">
-        <v>96.10516291661594</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>96.10516291661594</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>182.6848480813058</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>457.4433026524414</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>875.6531844204025</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.137051601316</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1777.39585475896</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.065103984742</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2544.571997955084</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.764772819416</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2712.764772819416</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2712.764772819416</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2466.88532639787</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2188.452325650976</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1901.496817521406</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1629.470413107698</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1384.07865844111</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1156.658987755218</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883919</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716168</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731395</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238767</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856329</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6607,7 +6607,7 @@
         <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449518</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6637,7 +6637,7 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
         <v>2718.920450173579</v>
@@ -6655,7 +6655,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831959</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
         <v>780.1951658309357</v>
@@ -7081,7 +7081,7 @@
         <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>267.8521152449518</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
@@ -7157,19 +7157,19 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197256</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7178,34 +7178,34 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428595</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998902</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832298</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790892</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397565</v>
+        <v>1061.826912397564</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936664</v>
+        <v>905.6649082936653</v>
       </c>
       <c r="D40" t="n">
-        <v>756.186622908065</v>
+        <v>756.186622908064</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716784</v>
+        <v>602.8283265716773</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463108</v>
+        <v>442.5209799463095</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850146</v>
+        <v>293.3294123850132</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882652</v>
+        <v>169.8269454882665</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758675</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856844</v>
+        <v>925.3347848856837</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1400.892005301956</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156102</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290616</v>
       </c>
       <c r="T40" t="n">
         <v>2465.473625281948</v>
@@ -7366,13 +7366,13 @@
         <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231235</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230403</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976691</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703676</v>
@@ -7388,13 +7388,13 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
         <v>755.2952747835855</v>
@@ -7403,10 +7403,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7415,40 +7415,40 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S41" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
@@ -7482,10 +7482,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E43" t="n">
         <v>602.8283265716797</v>
@@ -7561,10 +7561,10 @@
         <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,7 +7585,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
@@ -7594,25 +7594,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835858</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197245</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>217.2433476406696</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1051.593639598848</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>1051.593639598848</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M44" t="n">
-        <v>2208.641474809398</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N44" t="n">
-        <v>3334.372458245845</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
         <v>602.8283265716796</v>
@@ -7801,34 +7801,34 @@
         <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823633</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7840,16 +7840,16 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.1234907850367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060596</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.25748950982279</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,19 +8137,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>228.2231340728182</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>554.608057731873</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
-        <v>478.8828999897162</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318731</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840095</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>87.81302121848583</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>245.4347905011833</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1142.637829020677</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>911.7999282395392</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>467.0856939309906</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158828</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>278.3841743311003</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9167,10 +9167,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>924.6521327148796</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>924.6521327148796</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10592,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,13 +10826,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763903</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763903</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>120.8854989543957</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5440893830609</v>
       </c>
       <c r="U11" t="n">
-        <v>125.5175746289996</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>56.52943299419035</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>73.62918697961686</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>215.383931893347</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>80.33273211565603</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>35.15749310933967</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>215.3839318933472</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142722</v>
+        <v>107.2592358276481</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,10 +24412,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>34.6746782719261</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>229.4233680290253</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.742694960033987e-12</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>788538.5172252369</v>
+        <v>798004.8604501056</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>788538.5172252369</v>
+        <v>798515.7188713708</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>793884.1079578027</v>
+        <v>798515.7188713708</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740551.9574447188</v>
+        <v>631661.6735568381</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>768230.788818607</v>
+        <v>804527.5501145669</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>768230.7888186071</v>
+        <v>804527.5501145669</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>768230.7888186069</v>
+        <v>804527.5501145672</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>804527.5501145672</v>
+        <v>804527.550114567</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815916.0285752998</v>
+        <v>815916.0285752997</v>
       </c>
     </row>
     <row r="15">
@@ -26314,22 +26314,22 @@
         <v>174247.8789643827</v>
       </c>
       <c r="C2" t="n">
-        <v>174247.8789643826</v>
+        <v>174247.8789643827</v>
       </c>
       <c r="D2" t="n">
         <v>174247.8789643827</v>
       </c>
       <c r="E2" t="n">
-        <v>157612.7006848729</v>
+        <v>134437.4304700311</v>
       </c>
       <c r="F2" t="n">
-        <v>163503.6247730256</v>
+        <v>171228.7148446394</v>
       </c>
       <c r="G2" t="n">
-        <v>163503.6247730256</v>
+        <v>171228.7148446394</v>
       </c>
       <c r="H2" t="n">
-        <v>163503.6247730256</v>
+        <v>171228.7148446394</v>
       </c>
       <c r="I2" t="n">
         <v>171228.7148446394</v>
@@ -26347,13 +26347,13 @@
         <v>171228.7148446394</v>
       </c>
       <c r="N2" t="n">
-        <v>174247.8789643826</v>
+        <v>174247.8789643827</v>
       </c>
       <c r="O2" t="n">
-        <v>174247.8789643825</v>
+        <v>174247.8789643827</v>
       </c>
       <c r="P2" t="n">
-        <v>174247.8789643826</v>
+        <v>174247.8789643827</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797193</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928949193</v>
       </c>
       <c r="D3" t="n">
-        <v>40478.87875178175</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>175572.7530518685</v>
+        <v>72938.04361534443</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510025</v>
+        <v>105000.4827540551</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.84042391992989e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>20461.54847120703</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877635</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347375341</v>
       </c>
       <c r="L3" t="n">
-        <v>32980.84506379678</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>146539.3711242551</v>
+        <v>60876.72976950175</v>
       </c>
       <c r="N3" t="n">
-        <v>12988.56827099788</v>
+        <v>88373.14763716004</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>150349.4599672941</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511645</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="D4" t="n">
-        <v>169218.7486993416</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>50223.098489211</v>
+        <v>42838.32636452532</v>
       </c>
       <c r="F4" t="n">
-        <v>52100.23440139419</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="G4" t="n">
-        <v>52100.2344013942</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="H4" t="n">
-        <v>52100.2344013942</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
         <v>54561.82510962276</v>
@@ -26448,13 +26448,13 @@
         <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>68372.72551926984</v>
+        <v>68372.72551926979</v>
       </c>
       <c r="O4" t="n">
-        <v>68372.72551926988</v>
+        <v>68372.72551926991</v>
       </c>
       <c r="P4" t="n">
         <v>68372.72551926989</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996844</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>67347.76991009788</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69472.38000445715</v>
+        <v>55437.43563696398</v>
       </c>
       <c r="F5" t="n">
-        <v>73039.92381662811</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="G5" t="n">
-        <v>73039.92381662811</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="H5" t="n">
-        <v>73039.92381662811</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-221064.889483714</v>
+        <v>-269083.194052599</v>
       </c>
       <c r="C6" t="n">
-        <v>-78873.5888240042</v>
+        <v>-51998.18677211333</v>
       </c>
       <c r="D6" t="n">
-        <v>-102797.5183968384</v>
+        <v>-47974.83984316407</v>
       </c>
       <c r="E6" t="n">
-        <v>-137655.5308606637</v>
+        <v>-37082.60936598992</v>
       </c>
       <c r="F6" t="n">
-        <v>21551.06427990309</v>
+        <v>-66075.05596421358</v>
       </c>
       <c r="G6" t="n">
-        <v>38363.46655500325</v>
+        <v>38925.42678984152</v>
       </c>
       <c r="H6" t="n">
-        <v>38363.46655500325</v>
+        <v>38925.42678984135</v>
       </c>
       <c r="I6" t="n">
-        <v>18487.10265801713</v>
+        <v>38925.42678984152</v>
       </c>
       <c r="J6" t="n">
-        <v>-72065.814215766</v>
+        <v>-132467.549597922</v>
       </c>
       <c r="K6" t="n">
-        <v>38948.65112922416</v>
+        <v>35720.30544246619</v>
       </c>
       <c r="L6" t="n">
-        <v>5967.806065427372</v>
+        <v>38925.42678984152</v>
       </c>
       <c r="M6" t="n">
-        <v>-107590.7199950309</v>
+        <v>-21951.30297966022</v>
       </c>
       <c r="N6" t="n">
-        <v>17370.97044802521</v>
+        <v>-58013.6089181368</v>
       </c>
       <c r="O6" t="n">
-        <v>30359.53871902294</v>
+        <v>30359.538719023</v>
       </c>
       <c r="P6" t="n">
-        <v>30359.53871902302</v>
+        <v>30359.5387190231</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060598</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>554.6080577318731</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1142.637829020677</v>
+        <v>911.7999282395392</v>
       </c>
       <c r="F4" t="n">
-        <v>1201.314536457699</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1201.314536457699</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1201.314536457699</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,43 +27009,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060598</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.4534571017972</v>
       </c>
       <c r="D4" t="n">
-        <v>130.3122002117688</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>588.0297712888038</v>
+        <v>244.2847216316823</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702229</v>
+        <v>366.4605751452054</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>76.94596692704613</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060598</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.4534571017972</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117688</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712888038</v>
+        <v>244.2847216316823</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>307.7838677081834</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060598</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.4534571017972</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117688</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712888038</v>
+        <v>244.2847216316823</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702229</v>
+        <v>366.4605751452054</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27379,7 +27379,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,16 +27388,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>175.896237412705</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>217.8333078297309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120.2138656491344</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>171.2602191630598</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>3.329665100430134</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>80.16596111500928</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>169.3756835317294</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>143.651671086679</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>88.21152152196112</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,10 +27910,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>326.6295051306845</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>66.31405436430059</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>15.21302026266304</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-5.820766091346741e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.2357103387468</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874726</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.1234907850367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060596</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.25748950982279</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>228.2231340728182</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>554.608057731873</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
-        <v>478.8828999897162</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318731</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840095</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>87.81302121848583</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>245.4347905011833</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1142.637829020677</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>911.7999282395392</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>467.0856939309906</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158828</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>278.3841743311003</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,13 +35656,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>924.6521327148796</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,13 +36121,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>924.6521327148796</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -37005,10 +37005,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37470,16 +37470,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37546,13 +37546,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763903</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778279</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348438</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467892</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M40" t="n">
         <v>480.360828703306</v>
@@ -37713,7 +37713,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
@@ -37783,7 +37783,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763903</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37950,10 +37950,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
         <v>186.1274021209015</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>120.8854989543957</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348442</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
